--- a/Data/Lockdown Stringency.xlsx
+++ b/Data/Lockdown Stringency.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VMioz\Documents\TTU\FMI\Ben\Lockdown EFW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/COVIDBR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0B8F45-5FF6-4473-B18B-FD60D757EA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38C73E5-4E64-0D46-83D6-6B034DC1D640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DA1155D8-5722-43AF-8DEA-2289476B3BF3}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="23460" windowHeight="16180" xr2:uid="{DA1155D8-5722-43AF-8DEA-2289476B3BF3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Brazil LRF 2020" sheetId="2" r:id="rId1"/>
-    <sheet name="Brazil LRF 2021" sheetId="3" r:id="rId2"/>
+    <sheet name="panel" sheetId="4" r:id="rId1"/>
+    <sheet name="Brazil LRF 2020" sheetId="2" r:id="rId2"/>
+    <sheet name="Brazil LRF 2021" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,6 +40,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={646D708B-1191-2C4F-82BE-9426F681898B}</author>
+    <author>tc={64477568-8607-664D-B0AE-20993885F617}</author>
+    <author>tc={12A2995D-EECF-7049-B787-D4642DBDE556}</author>
+  </authors>
+  <commentList>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{646D708B-1191-2C4F-82BE-9426F681898B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Distrito Federal did not have any lockdown stringency data. Their score is the average of the states lockdsown stringency scores.</t>
+      </text>
+    </comment>
+    <comment ref="C35" authorId="1" shapeId="0" xr:uid="{64477568-8607-664D-B0AE-20993885F617}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Distrito Federal did not have any recorded lockdown stringency numbers. This score is the average score of all the other Brazilian states.</t>
+      </text>
+    </comment>
+    <comment ref="C52" authorId="2" shapeId="0" xr:uid="{12A2995D-EECF-7049-B787-D4642DBDE556}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Sanata Catarina did not have any recorded lockdown stringency numbers. This score is the average score of all the other Brazilian states (not including the score calculated for Distrito Federal).</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={208E519E-B388-4014-8CB9-5F8FF6ACD18D}</author>
   </authors>
   <commentList>
@@ -54,7 +91,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={2FC3F1CF-4891-4046-AF84-961B63F74874}</author>
@@ -82,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="35">
   <si>
     <t>State</t>
   </si>
@@ -184,25 +221,22 @@
   </si>
   <si>
     <t>Brazil Lockdown Stringency Score 2021</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -218,8 +252,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -259,23 +293,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,13 +660,27 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C8" dT="2022-02-21T20:01:42.12" personId="{8319CD2B-7D83-4870-9661-4C75153F33C3}" id="{646D708B-1191-2C4F-82BE-9426F681898B}">
+    <text>Distrito Federal did not have any lockdown stringency data. Their score is the average of the states lockdsown stringency scores.</text>
+  </threadedComment>
+  <threadedComment ref="C35" dT="2022-02-04T18:35:49.57" personId="{8319CD2B-7D83-4870-9661-4C75153F33C3}" id="{64477568-8607-664D-B0AE-20993885F617}">
+    <text>Distrito Federal did not have any recorded lockdown stringency numbers. This score is the average score of all the other Brazilian states.</text>
+  </threadedComment>
+  <threadedComment ref="C52" dT="2022-02-08T22:04:55.02" personId="{8319CD2B-7D83-4870-9661-4C75153F33C3}" id="{12A2995D-EECF-7049-B787-D4642DBDE556}">
+    <text>Sanata Catarina did not have any recorded lockdown stringency numbers. This score is the average score of all the other Brazilian states (not including the score calculated for Distrito Federal).</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B8" dT="2022-02-21T20:01:42.12" personId="{8319CD2B-7D83-4870-9661-4C75153F33C3}" id="{208E519E-B388-4014-8CB9-5F8FF6ACD18D}">
     <text>Distrito Federal did not have any lockdown stringency data. Their score is the average of the states lockdsown stringency scores.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B8" dT="2022-02-04T18:35:49.57" personId="{8319CD2B-7D83-4870-9661-4C75153F33C3}" id="{2FC3F1CF-4891-4046-AF84-961B63F74874}">
     <text>Distrito Federal did not have any recorded lockdown stringency numbers. This score is the average score of all the other Brazilian states.</text>
@@ -635,23 +692,653 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A2077D-5B61-6942-BC65-555E4CD1FAA8}">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2.4611928104575167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4.1081768545305186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.4262663398692808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.9374319172113288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3.516135620915033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.4072031590413943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="6">
+        <f>AVERAGE(C2:C7,C9:C28)</f>
+        <v>3.6026247442342862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3.1832107843137254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4.6129493464052285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>2020</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5.7175925925925926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.6858660130718959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3.7193627450980395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3.6829384531590419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4.0148420479302835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>2020</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3.6683006535947715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>2020</v>
+      </c>
+      <c r="C17" s="5">
+        <v>4.1333061002178653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>2020</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3.9409722222222228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>2020</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3.2502723311546839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>2020</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3.2560593681917216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>2020</v>
+      </c>
+      <c r="C21" s="5">
+        <v>4.0328839869281046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>2020</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3.8282952069716769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>2020</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2.3754084967320259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>2020</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2.1718409586056646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>2020</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2.9509320175438596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>2020</v>
+      </c>
+      <c r="C26" s="5">
+        <v>4.5275054466230937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>2020</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4.3770402514375508</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>2020</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3.6822576252723316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>2021</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4.0418473100850836</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>2021</v>
+      </c>
+      <c r="C30" s="5">
+        <v>5.2830660560947722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>2021</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3.4922282349269294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>2021</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3.2069165447077705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>2021</v>
+      </c>
+      <c r="C33" s="5">
+        <v>4.2062471110438704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>2021</v>
+      </c>
+      <c r="C34" s="5">
+        <v>4.2934847869646013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>2021</v>
+      </c>
+      <c r="C35" s="6">
+        <f>AVERAGE(C29:C34,C37:C51,C53:C55)</f>
+        <v>4.5541793299388136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>2021</v>
+      </c>
+      <c r="C36" s="5">
+        <v>4.2388929735504455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>2021</v>
+      </c>
+      <c r="C37" s="5">
+        <v>5.6369401693261576</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38" s="5">
+        <v>5.4613841088870005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>2021</v>
+      </c>
+      <c r="C39" s="5">
+        <v>3.3129254114028446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>2021</v>
+      </c>
+      <c r="C40" s="5">
+        <v>4.960095204808356</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="5">
+        <v>4.9815261388170962</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>2021</v>
+      </c>
+      <c r="C42" s="5">
+        <v>4.8968090206381989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>2021</v>
+      </c>
+      <c r="C43" s="5">
+        <v>5.0546624532922362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="5">
+        <v>4.3765240063200386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="5">
+        <v>4.2871132233817413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>2021</v>
+      </c>
+      <c r="C46" s="5">
+        <v>5.0269862170479964</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>2021</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4.8772637511661827</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="5">
+        <v>4.1425338012793365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>2021</v>
+      </c>
+      <c r="C49" s="5">
+        <v>5.3563929082869102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>2021</v>
+      </c>
+      <c r="C50" s="5">
+        <v>4.4939310551800231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>2021</v>
+      </c>
+      <c r="C51" s="5">
+        <v>3.9275323717666994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52">
+        <v>2021</v>
+      </c>
+      <c r="C52" s="6">
+        <f>AVERAGE(C29:C34,C36:C51,C53:C55)</f>
+        <v>4.5415678756832794</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53">
+        <v>2021</v>
+      </c>
+      <c r="C53" s="5">
+        <v>5.8665572970761337</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <v>2021</v>
+      </c>
+      <c r="C54" s="5">
+        <v>4.8216531462772378</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55">
+        <v>2021</v>
+      </c>
+      <c r="C55" s="5">
+        <v>3.2956835897543106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBEF351-C1B2-41E7-8756-AB3D9892060A}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="2"/>
-    <col min="6" max="6" width="33.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="18.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="2"/>
+    <col min="6" max="6" width="33.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -665,7 +1352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -683,7 +1370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -702,7 +1389,7 @@
         <v>3.8927631971054888</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -717,7 +1404,7 @@
         <v>1.3705065359477124E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -732,7 +1419,7 @@
         <v>5.8748638344226577E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -747,7 +1434,7 @@
         <v>0.24964562908496732</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -762,7 +1449,7 @@
         <v>0.14650973583877994</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -778,7 +1465,7 @@
         <v>5.0436746419280011E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -793,7 +1480,7 @@
         <v>6.0481004901960782E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -808,7 +1495,7 @@
         <v>0.15684027777777779</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
@@ -823,7 +1510,7 @@
         <v>0.19439814814814815</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -838,7 +1525,7 @@
         <v>4.5659722222222233E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -853,7 +1540,7 @@
         <v>4.8351715686274513E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
@@ -868,7 +1555,7 @@
         <v>0.37197678376906324</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
@@ -883,7 +1570,7 @@
         <v>0.16460852396514164</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
@@ -898,7 +1585,7 @@
         <v>6.9697712418300653E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -913,7 +1600,7 @@
         <v>0.22319852941176471</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
@@ -928,7 +1615,7 @@
         <v>0.17734375000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
@@ -943,7 +1630,7 @@
         <v>5.2004357298474947E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -958,7 +1645,7 @@
         <v>0.26699686819172119</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
@@ -973,7 +1660,7 @@
         <v>6.8559027777777781E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
@@ -988,7 +1675,7 @@
         <v>0.20672794117647056</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
@@ -1003,7 +1690,7 @@
         <v>1.9003267973856208E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
@@ -1018,7 +1705,7 @@
         <v>6.5155228758169937E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
@@ -1033,7 +1720,7 @@
         <v>0.10033168859649123</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1048,7 +1735,7 @@
         <v>0.99152369281045749</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
@@ -1063,7 +1750,7 @@
         <v>4.8147442765813057E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1085,27 +1772,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E4667B-C684-45CF-895C-DA2B43E6E77C}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.81640625" style="2"/>
+    <col min="1" max="1" width="18.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1141,7 +1828,7 @@
       <c r="J2" s="3"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1851,7 @@
       <c r="J3" s="3"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1183,7 +1870,7 @@
       <c r="J4" s="3"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +1889,7 @@
       <c r="J5" s="3"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1221,7 +1908,7 @@
       <c r="J6" s="3"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -1240,7 +1927,7 @@
       <c r="J7" s="3"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -1260,7 +1947,7 @@
       <c r="J8" s="3"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1279,7 +1966,7 @@
       <c r="J9" s="3"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -1298,7 +1985,7 @@
       <c r="J10" s="3"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
@@ -1317,7 +2004,7 @@
       <c r="J11" s="3"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -1336,7 +2023,7 @@
       <c r="J12" s="3"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1355,7 +2042,7 @@
       <c r="J13" s="3"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
@@ -1374,7 +2061,7 @@
       <c r="J14" s="3"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
@@ -1393,7 +2080,7 @@
       <c r="J15" s="3"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +2099,7 @@
       <c r="J16" s="3"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -1431,7 +2118,7 @@
       <c r="J17" s="3"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
@@ -1450,7 +2137,7 @@
       <c r="J18" s="3"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
@@ -1469,7 +2156,7 @@
       <c r="J19" s="3"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
@@ -1488,7 +2175,7 @@
       <c r="J20" s="3"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
@@ -1507,7 +2194,7 @@
       <c r="J21" s="3"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
@@ -1526,7 +2213,7 @@
       <c r="J22" s="3"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
@@ -1545,7 +2232,7 @@
       <c r="J23" s="3"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
@@ -1564,7 +2251,7 @@
       <c r="J24" s="3"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
@@ -1584,7 +2271,7 @@
       <c r="J25" s="3"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1603,7 +2290,7 @@
       <c r="J26" s="3"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>30</v>
       </c>
@@ -1622,7 +2309,7 @@
       <c r="J27" s="3"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1641,7 +2328,7 @@
       <c r="J28" s="3"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C29" s="4"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>

--- a/Data/Lockdown Stringency.xlsx
+++ b/Data/Lockdown Stringency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/COVIDBR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38C73E5-4E64-0D46-83D6-6B034DC1D640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32058737-0230-BF40-9500-E721B1F6BAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="23460" windowHeight="16180" xr2:uid="{DA1155D8-5722-43AF-8DEA-2289476B3BF3}"/>
+    <workbookView xWindow="10740" yWindow="780" windowWidth="23460" windowHeight="16180" xr2:uid="{DA1155D8-5722-43AF-8DEA-2289476B3BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="panel" sheetId="4" r:id="rId1"/>
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,12 +249,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -695,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A2077D-5B61-6942-BC65-555E4CD1FAA8}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:A55"/>
     </sheetView>
   </sheetViews>
